--- a/pred_ohlcv/54_21/2019-10-29 ANKR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 ANKR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2869930.704899999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3050518.501899999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2122404.805399999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2084236.021599999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2090621.237799999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1908075.805799999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1817511.023399998</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1811305.909199998</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1993363.997399998</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1991093.997399998</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2049155.352599998</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2048155.352599998</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>2795096.435799998</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2794096.435799998</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2831820.534999998</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>2831820.534999998</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>2831820.534999998</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2841040.477599998</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1818244.213999999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1818214.288999998</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-445042.9066000014</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-445042.9066000014</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-365294.9298000014</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-481222.1741000014</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>131953.1001999986</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-181120.0514000014</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-281585.3504000014</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-273072.2638000014</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-256012.5701000014</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-256012.5701000014</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-256012.5701000014</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-256012.5701000014</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-257220.3478000014</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>370318.4080999986</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>2523455.000199999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 ANKR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 ANKR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2869930.704899999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3050518.501899999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2122404.805399999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2084236.021599999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2090621.237799999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>2795096.435799998</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2794096.435799998</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1818244.213999999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-256012.5701000014</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-257220.3478000014</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>370318.4080999986</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1766230.837799998</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>2523455.000199999</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
